--- a/Jobsheet 1/D. Regresi Linier/Regresi Linier.xlsx
+++ b/Jobsheet 1/D. Regresi Linier/Regresi Linier.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Perkuliahan\Semester 5\Sistem Embedded\Percobaan 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Perkuliahan\Semester 5\Sistem Embedded\Sistem Embedded\Jobsheet 1\D. Regresi Linier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D32BAE17-2F4A-4AF8-B1B4-7909FD01EB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B969152-F451-47A0-8DF2-E63760AC351F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{94B118D4-85DF-4445-9C5A-F750D5A3EA07}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>ADC</t>
   </si>
@@ -34,6 +34,15 @@
   </si>
   <si>
     <t>VS</t>
+  </si>
+  <si>
+    <t>Tanah Kering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanah Medium </t>
+  </si>
+  <si>
+    <t>Tanah Basah</t>
   </si>
 </sst>
 </file>
@@ -2314,15 +2323,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A34799-01B0-466B-A382-4FF37D06A5F8}">
-  <dimension ref="G4:J7"/>
+  <dimension ref="F4:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
         <v>0</v>
       </c>
@@ -2336,7 +2348,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
       <c r="G5">
         <v>577</v>
       </c>
@@ -2350,7 +2365,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
       <c r="G6">
         <v>476</v>
       </c>
@@ -2364,7 +2382,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
       <c r="G7">
         <v>347</v>
       </c>
